--- a/biology/Zoologie/Emoia_campbelli/Emoia_campbelli.xlsx
+++ b/biology/Zoologie/Emoia_campbelli/Emoia_campbelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emoia campbelli est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emoia campbelli est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Viti Levu aux Fidji[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Viti Levu aux Fidji.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du géologue John Campbell qui a recueilli l'holotype[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du géologue John Campbell qui a recueilli l'holotype.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brown &amp; Gibbons, 1986 : Species of the Emoia samoensis group of lizards (Scincidae) in the Fiji Islands, with descriptions of two new species. Proceedings of the California Academy of Sciences, sér. 4, vol. 44, no 4, p. 41-53 (texte intégral).</t>
         </is>
